--- a/data/tra_demand_split_factors.xlsx
+++ b/data/tra_demand_split_factors.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="24240" windowHeight="13170"/>
+    <workbookView activeTab="0" windowHeight="13170" windowWidth="24240" xWindow="480" yWindow="315"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Sheet1" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
@@ -1364,441 +1364,441 @@
     </border>
   </borders>
   <cellStyleXfs count="271">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="47" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="47" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="47" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="47" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="47" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="47" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="47" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="47" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="47" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="47" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="47" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="47" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="49" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="49" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="49" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="49" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="49" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="49" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="82" fillId="67" borderId="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="168"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="168"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="168"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="5" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="6" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="7" numFmtId="168"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="9" numFmtId="168"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="10" numFmtId="168"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="11" numFmtId="168"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="12" numFmtId="168"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="7" fontId="13" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="168"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="16" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="17" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="17" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="17" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="17" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="17" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="17" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="18" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="47" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="35" fontId="47" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="37" fontId="47" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="38" fontId="47" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="39" fontId="47" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="47" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="41" fontId="47" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="42" fontId="47" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="44" fontId="47" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="38" fontId="47" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="41" fontId="47" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="45" fontId="47" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="17" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="47" fontId="49" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="17" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="42" fontId="49" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="17" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="44" fontId="49" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="17" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="48" fontId="49" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="17" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="46" fontId="49" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="49" fontId="49" numFmtId="168"/>
+    <xf applyProtection="0" borderId="0" fillId="67" fontId="82" numFmtId="168">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="68" fillId="68" borderId="0" applyProtection="0">
+    <xf applyProtection="0" borderId="0" fillId="68" fontId="68" numFmtId="168">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="49" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="49" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="49" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="49" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="49" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="49" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="50" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="69" fillId="0" borderId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="50" fontId="49" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="51" fontId="49" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="52" fontId="49" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="48" fontId="49" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="46" fontId="49" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="53" fontId="49" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="35" fontId="50" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="69" numFmtId="175">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="69" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="69" numFmtId="176">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="51" fillId="40" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="52" fillId="54" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="40" fontId="51" numFmtId="168"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="54" fontId="52" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="168">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="33" fillId="0" borderId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="43"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="47" numFmtId="43"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="43"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="168">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="79" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="171"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="171"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="171"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="79" numFmtId="173"/>
+    <xf applyFill="0" applyNumberFormat="0" borderId="12" fillId="0" fontId="34" numFmtId="169">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="43" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0">
+    <xf applyFill="0" applyNumberFormat="0" borderId="12" fillId="0" fontId="43" numFmtId="169">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="43" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0">
+    <xf applyFill="0" applyNumberFormat="0" borderId="12" fillId="0" fontId="43" numFmtId="169">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0">
+    <xf applyFill="0" applyNumberFormat="0" borderId="12" fillId="0" fontId="34" numFmtId="169">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="35" fillId="0" borderId="12">
+    <xf borderId="12" fillId="0" fontId="35" numFmtId="170">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="35" fillId="0" borderId="12">
+    <xf borderId="12" fillId="0" fontId="35" numFmtId="170">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="12">
+    <xf borderId="12" fillId="0" fontId="36" numFmtId="49">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="12">
+    <xf borderId="12" fillId="0" fontId="36" numFmtId="49">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0">
+    <xf applyFill="0" applyNumberFormat="0" borderId="12" fillId="0" fontId="34" numFmtId="169">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="79" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="2" fontId="67" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="25" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="53" numFmtId="168"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="79" numFmtId="174"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyProtection="0" borderId="0" fillId="0" fontId="67" numFmtId="2"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="46" numFmtId="168">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="54" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="37" fontId="54" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="168">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="55" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="56" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="57" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="73" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="13" fillId="0" fontId="55" numFmtId="168"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="14" fillId="0" fontId="56" numFmtId="168"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="15" fillId="0" fontId="57" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="57" numFmtId="168"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="73" numFmtId="168">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="37" fillId="0" borderId="12">
+    <xf borderId="12" fillId="0" fontId="37" numFmtId="168">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="42" fillId="0" borderId="12">
+    <xf borderId="12" fillId="0" fontId="42" numFmtId="168">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="42" fillId="0" borderId="12">
+    <xf borderId="12" fillId="0" fontId="42" numFmtId="168">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="37" fillId="0" borderId="12">
+    <xf borderId="12" fillId="0" fontId="37" numFmtId="168">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="38" fillId="0" borderId="16">
+    <xf borderId="16" fillId="0" fontId="38" numFmtId="168">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="39" fillId="0" borderId="12">
+    <xf borderId="12" fillId="0" fontId="39" numFmtId="168">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="39" fillId="0" borderId="12">
+    <xf borderId="12" fillId="0" fontId="39" numFmtId="168">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="12">
+    <xf borderId="12" fillId="0" fontId="34" numFmtId="168">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="12">
+    <xf borderId="12" fillId="0" fontId="34" numFmtId="168">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="37" fillId="0" borderId="12">
+    <xf borderId="12" fillId="0" fontId="37" numFmtId="168">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="37" fillId="55" borderId="0">
+    <xf borderId="0" fillId="55" fontId="37" numFmtId="168">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="55" borderId="17">
+    <xf borderId="17" fillId="55" fontId="37" numFmtId="49">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="55" borderId="17">
+    <xf borderId="17" fillId="55" fontId="37" numFmtId="49">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="37" fillId="55" borderId="0">
+    <xf borderId="0" fillId="55" fontId="37" numFmtId="168">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="45" numFmtId="168">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="31" numFmtId="168">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="65" numFmtId="168">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="75" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="74" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="80" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="58" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="59" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="60" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="72" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="79" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="81" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="76" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyProtection="0" borderId="0" fillId="0" fontId="75" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyProtection="0" borderId="0" fillId="0" fontId="74" numFmtId="168"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="80" numFmtId="168"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="33" fontId="58" numFmtId="168"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="18" fillId="0" fontId="59" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="8" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="43" fontId="60" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" borderId="0" fillId="0" fontId="71" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="72" numFmtId="172"/>
+    <xf borderId="0" fillId="0" fontId="79" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="81" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="70" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="48" numFmtId="168"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="76" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="168">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="76" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="168"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="76" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="168">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="18" fillId="36" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="61" fillId="40" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="72" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="77" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="166"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="168"/>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="168"/>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="19" fillId="36" fontId="18" numFmtId="168"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="20" fillId="40" fontId="61" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="25" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="72" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyProtection="0" borderId="0" fillId="0" fontId="25" numFmtId="167"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="168"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="77" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="168">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="77" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="78" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="40" fillId="0" borderId="0">
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="77" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="168"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="78" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="40" numFmtId="168">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="40" numFmtId="49">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="36" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="168">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="44" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="44" numFmtId="168">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="40" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="40" numFmtId="168">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="168">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="66" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="66" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="49">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="12">
+    <xf borderId="12" fillId="0" fontId="36" numFmtId="49">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="12">
+    <xf borderId="12" fillId="0" fontId="36" numFmtId="49">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="35" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf applyNumberFormat="0" borderId="0" fillId="0" fontId="35" numFmtId="169">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="38" fillId="56" borderId="0">
+    <xf borderId="0" fillId="56" fontId="38" numFmtId="168">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="38" fillId="0" borderId="21">
+    <xf borderId="21" fillId="0" fontId="38" numFmtId="168">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="41" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="168">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="57" borderId="22">
+    <xf borderId="22" fillId="57" fontId="28" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="57" borderId="22">
+    <xf borderId="22" fillId="57" fontId="29" numFmtId="165">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="58" borderId="22">
+    <xf borderId="22" fillId="58" fontId="30" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="59" borderId="23" applyBorder="0">
+    <xf applyBorder="0" borderId="23" fillId="59" fontId="18" numFmtId="168">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="60" borderId="24">
+    <xf borderId="24" fillId="60" fontId="18" numFmtId="49">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="61" borderId="25">
+    <xf borderId="25" fillId="61" fontId="18" numFmtId="168">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="62" borderId="24">
+    <xf borderId="24" fillId="62" fontId="21" numFmtId="168">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="63" borderId="24">
+    <xf borderId="24" fillId="63" fontId="18" numFmtId="168">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="64" borderId="24">
+    <xf borderId="24" fillId="64" fontId="18" numFmtId="168">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="37" fillId="0" borderId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="168"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="62" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="168">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="33" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="168">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="168">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="41" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="168">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="33" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="168">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="168">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0">
+    <xf applyBorder="0" applyNumberFormat="0" borderId="0" fillId="65" fontId="22" numFmtId="168">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="63" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="23" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="26" fillId="0" fontId="63" numFmtId="168"/>
+    <xf applyBorder="0" applyNumberFormat="0" borderId="0" fillId="66" fontId="23" numFmtId="168">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="12">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="64" numFmtId="168"/>
+    <xf borderId="12" fillId="0" fontId="35" numFmtId="49">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="12">
+    <xf borderId="12" fillId="0" fontId="35" numFmtId="49">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="38" fillId="0" borderId="16">
+    <xf borderId="16" fillId="0" fontId="38" numFmtId="168">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="37" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="168">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="12">
+    <xf borderId="12" fillId="0" fontId="40" numFmtId="49">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="83" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="83" numFmtId="177" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1929,7 +1929,7 @@
     <cellStyle name="Linked Cell 3" xfId="13"/>
     <cellStyle name="Neutral 2" xfId="133"/>
     <cellStyle name="Neutral 3" xfId="132"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 10" xfId="134"/>
     <cellStyle name="Normal 11" xfId="135"/>
     <cellStyle name="Normal 11 2" xfId="136"/>
@@ -2076,7 +2076,7 @@
     <cellStyle name="Wrap_NTS99-~11" xfId="267"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2090,10 +2090,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2251,7 +2251,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2260,13 +2260,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2276,7 +2276,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2285,7 +2285,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2294,7 +2294,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2304,12 +2304,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2340,7 +2340,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2359,7 +2359,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2370,711 +2370,96 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>-0.13072997034193559</v>
-      </c>
-      <c r="C2" s="4">
-        <v>13.442278880878172</v>
-      </c>
-      <c r="D2">
-        <v>6.0823801537386452E-2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.36203256570166709</v>
-      </c>
-      <c r="F2" s="1">
-        <v>96.876000000000005</v>
-      </c>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>-7.8910611620459856E-3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1.1678349426779195</v>
-      </c>
-      <c r="D3">
-        <v>6.8288181818181817E-2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.40988917088599519</v>
-      </c>
-      <c r="F3" s="1">
-        <v>73.989999999999995</v>
-      </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3.6801455539145454E-2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>-2.1099264972911893</v>
-      </c>
-      <c r="D4">
-        <v>5.9432395264116575E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.41423164785706978</v>
-      </c>
-      <c r="F4" s="1">
-        <v>73.477000000000004</v>
-      </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>-9.8164871896515328E-3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.40847280246133</v>
-      </c>
-      <c r="D5">
-        <v>0.13302881377551018</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.45185418825755863</v>
-      </c>
-      <c r="F5" s="1">
-        <v>87.525999999999996</v>
-      </c>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>-2.5775725767289057E-3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.88849686651051873</v>
-      </c>
-      <c r="D6">
-        <v>4.4370056414922657E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.31086338226159727</v>
-      </c>
-      <c r="F6" s="1">
-        <v>77.2</v>
-      </c>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <v>-6.4223097139459312E-3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1.0879646515548766</v>
-      </c>
-      <c r="D7">
-        <v>4.8503768115942023E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.34131027129487024</v>
-      </c>
-      <c r="F7" s="1">
-        <v>68.415999999999997</v>
-      </c>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
-        <v>7.8070542041253803E-4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.54848478460364714</v>
-      </c>
-      <c r="D8">
-        <v>8.3373854489164095E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.39596298774253003</v>
-      </c>
-      <c r="F8" s="1">
-        <v>62.537999999999997</v>
-      </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>-7.892957193516929E-3</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1.1128016319963532</v>
-      </c>
-      <c r="D9">
-        <v>0.12744019708029197</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.50412311265969811</v>
-      </c>
-      <c r="F9" s="1">
-        <v>78.046000000000006</v>
-      </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>-6.5326838039888539E-3</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1.0569822528511725</v>
-      </c>
-      <c r="D10">
-        <v>7.1250785669390318E-2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.46275447239406908</v>
-      </c>
-      <c r="F10" s="1">
-        <v>79.602000000000004</v>
-      </c>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4">
-        <v>-6.074338457198067E-3</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1.1572805227889911</v>
-      </c>
-      <c r="D11">
-        <v>6.9501953962581464E-2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.32531804918797302</v>
-      </c>
-      <c r="F11" s="1">
-        <v>79.655000000000001</v>
-      </c>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>-1.3774965917198826E-2</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1.3287073464868451</v>
-      </c>
-      <c r="D12">
-        <v>5.3177191358024699E-2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.44664748723531089</v>
-      </c>
-      <c r="F12" s="1">
-        <v>56.155000000000001</v>
-      </c>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>-1.439452844194674E-2</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1.7621283805928238</v>
-      </c>
-      <c r="D13">
-        <v>3.9712040488431875E-2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.23339128866776837</v>
-      </c>
-      <c r="F13" s="1">
-        <v>69.564999999999998</v>
-      </c>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
-        <v>-3.0815467036671419E-2</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2.4495429966287223</v>
-      </c>
-      <c r="D14">
-        <v>0.45967008849557517</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.62960185948864067</v>
-      </c>
-      <c r="F14" s="1">
-        <v>66.945999999999998</v>
-      </c>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4">
-        <v>-0.14979924224842467</v>
-      </c>
-      <c r="C15" s="4">
-        <v>10.745026231269398</v>
-      </c>
-      <c r="D15">
-        <v>6.1246184971098259E-2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.51896991537433701</v>
-      </c>
-      <c r="F15" s="1">
-        <v>67.98</v>
-      </c>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4">
-        <v>-8.3833051267530601E-2</v>
-      </c>
-      <c r="C16" s="4">
-        <v>6.3363457936312813</v>
-      </c>
-      <c r="D16">
-        <v>1.9912775000000001E-2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.30106479677963893</v>
-      </c>
-      <c r="F16" s="1">
-        <v>67.23</v>
-      </c>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4">
-        <v>2.7196109912286256E-3</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.29626602124775536</v>
-      </c>
-      <c r="D17">
-        <v>7.1189662921348318E-2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.46859421734795614</v>
-      </c>
-      <c r="F17" s="1">
-        <v>90.179000000000002</v>
-      </c>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4">
-        <v>-2.4932139839137415E-3</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.82072455597359095</v>
-      </c>
-      <c r="D18">
-        <v>5.288898633257403E-2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.35321404903909881</v>
-      </c>
-      <c r="F18" s="1">
-        <v>70.5</v>
-      </c>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4">
-        <v>-0.10059580715328947</v>
-      </c>
-      <c r="C19" s="4">
-        <v>9.7351956063385785</v>
-      </c>
-      <c r="D19">
-        <v>0.44291464285714294</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.77243994943109995</v>
-      </c>
-      <c r="F19" s="1">
-        <v>94.414000000000001</v>
-      </c>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4">
-        <v>-4.4837357053435604E-3</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1.0604593495142114</v>
-      </c>
-      <c r="D20">
-        <v>0.18365645575424117</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.34975724940511266</v>
-      </c>
-      <c r="F20" s="1">
-        <v>90.173000000000002</v>
-      </c>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4">
-        <v>-7.5526633742760661E-3</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1.0265070404607655</v>
-      </c>
-      <c r="D21">
-        <v>0.12773628695652176</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.40067944863134053</v>
-      </c>
-      <c r="F21" s="1">
-        <v>57.715000000000003</v>
-      </c>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4">
-        <v>2.0215548256134568E-2</v>
-      </c>
-      <c r="C22" s="4">
-        <v>-0.58653273064139089</v>
-      </c>
-      <c r="D22">
-        <v>2.6983380584192439E-2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.36794661019310626</v>
-      </c>
-      <c r="F22" s="1">
-        <v>60.277999999999999</v>
-      </c>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4">
-        <v>-3.6111987220329564E-3</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.72197485047609722</v>
-      </c>
-      <c r="D23">
-        <v>0.12779145104895104</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.50464369636509177</v>
-      </c>
-      <c r="F23" s="1">
-        <v>63.514000000000003</v>
-      </c>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4">
-        <v>-7.0769474151438749E-2</v>
-      </c>
-      <c r="C24" s="4">
-        <v>4.4191231295702798</v>
-      </c>
-      <c r="D24">
-        <v>2.328625414364641E-2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.42035907344289347</v>
-      </c>
-      <c r="F24" s="1">
-        <v>53.887</v>
-      </c>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4">
-        <v>-8.3040762161499268E-4</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.65360137982744515</v>
-      </c>
-      <c r="D25">
-        <v>1.7641086142322099E-2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.39154682457624457</v>
-      </c>
-      <c r="F25" s="1">
-        <v>53.780999999999999</v>
-      </c>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4">
-        <v>-1.146063852118618E-3</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0.73255889664445173</v>
-      </c>
-      <c r="D26">
-        <v>2.5225744125326372E-2</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.3206889374544698</v>
-      </c>
-      <c r="F26" s="1">
-        <v>53.889000000000003</v>
-      </c>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4">
-        <v>-1.9335331649334139E-2</v>
-      </c>
-      <c r="C27" s="4">
-        <v>2.2515020795331049</v>
-      </c>
-      <c r="D27">
-        <v>0.113695656213705</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.40427498328548395</v>
-      </c>
-      <c r="F27" s="1">
-        <v>85.224999999999994</v>
-      </c>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4">
-        <v>-7.8265466781671528E-3</v>
-      </c>
-      <c r="C28" s="4">
-        <v>1.2491942681569319</v>
-      </c>
-      <c r="D28">
-        <v>7.8398512679917751E-2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.42757532791966657</v>
-      </c>
-      <c r="F28" s="1">
-        <v>86.552999999999997</v>
-      </c>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1">
-        <v>6.3518794780884989E-3</v>
-      </c>
-      <c r="C29" s="1">
-        <v>6.3789921604007538E-2</v>
-      </c>
-      <c r="D29">
-        <v>8.5018767695521011E-2</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.41153892398331504</v>
-      </c>
-      <c r="F29" s="1">
-        <v>82.626000000000005</v>
-      </c>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4">
-        <v>-2.5775725767289057E-3</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0.88849686651051873</v>
-      </c>
-      <c r="D30">
-        <v>0.14013929252782192</v>
-      </c>
-      <c r="E30">
-        <v>0.42689757371778769</v>
-      </c>
-      <c r="F30" s="1">
-        <v>82</v>
-      </c>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="K31" s="5"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:B28 B30">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A62C41AD-D719-4B83-966E-3E8BF6F53933}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A62C41AD-D719-4B83-966E-3E8BF6F53933}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B2:B28 B30</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData>
+</sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData>
+</sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>factor_a</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>factor_b</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>nshift-share</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>urb-share</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>urb-current</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.006074338457198067</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.157280522788991</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06950195396258146</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.325318049187973</v>
+      </c>
+      <c r="F2" t="n">
+        <v>79.655</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>